--- a/artfynd/A 22387-2020.xlsx
+++ b/artfynd/A 22387-2020.xlsx
@@ -680,64 +680,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84260036</v>
+        <v>85688003</v>
       </c>
       <c r="B2" t="n">
-        <v>88853</v>
+        <v>56632</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4189</v>
+        <v>103012</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Phylloscopus sibilatrix</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>(Bechstein, 1793)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>270 m O Morgastugan, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>648574.4775486302</v>
+        <v>648679.7948023564</v>
       </c>
       <c r="R2" t="n">
-        <v>6626432.648480264</v>
+        <v>6626579.629163019</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -771,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -785,49 +774,28 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>I barrmatta under gran</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies # I barrmatta under gran</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Martin Westberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84261378</v>
+        <v>103719577</v>
       </c>
       <c r="B3" t="n">
-        <v>93235</v>
+        <v>88924</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -836,45 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>233192</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Solfingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Ramaria flavobrunnescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(G.F. Atk.) Corner, 1950</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>Kungshamn-Morga: Turelund, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>648647.4352402453</v>
+        <v>648653.5172598924</v>
       </c>
       <c r="R3" t="n">
-        <v>6626402.765504949</v>
+        <v>6626579.589166841</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -898,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -908,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -922,39 +886,43 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Kraftigt rötad låga</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Kraftigt rötad låga</t>
-        </is>
-      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Hassel, gran, tall</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Björn Larsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Birgitta Wasstorp, Cajsa Björkén, Eva Grönlund, Karl Soler Kinnerbäck, Lars Gerre, Martin Axegård, Åke Berg</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>SMF:s mykologivecka</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84260154</v>
+        <v>96372410</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>90642</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -963,44 +931,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>150</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>Kungshamn-Morga, Knivsta, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>648503.2107131273</v>
+        <v>648766.9465417236</v>
       </c>
       <c r="R4" t="n">
-        <v>6626432.833224222</v>
+        <v>6626611.866342653</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1024,22 +999,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1048,34 +1023,18 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Annica Beil</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Annica Beil</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1311,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85696492</v>
+        <v>85696504</v>
       </c>
       <c r="B7" t="n">
-        <v>93158</v>
+        <v>100515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1323,25 +1282,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2818</v>
+        <v>223246</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1351,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>648618.9427386825</v>
+        <v>648356.044518752</v>
       </c>
       <c r="R7" t="n">
-        <v>6626318.884818928</v>
+        <v>6626473.383706512</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1423,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85696495</v>
+        <v>85696505</v>
       </c>
       <c r="B8" t="n">
-        <v>90005</v>
+        <v>98431</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1398,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1339</v>
+        <v>222771</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1463,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>648602.9986791029</v>
+        <v>648349.6254611165</v>
       </c>
       <c r="R8" t="n">
-        <v>6626325.816710906</v>
+        <v>6626469.596396407</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1517,6 +1476,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1535,10 +1495,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85696496</v>
+        <v>85687991</v>
       </c>
       <c r="B9" t="n">
-        <v>93158</v>
+        <v>98431</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1551,34 +1511,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2818</v>
+        <v>222771</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>270 m O Morgastugan, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>648579.0191082138</v>
+        <v>648380.6484142698</v>
       </c>
       <c r="R9" t="n">
-        <v>6626318.80554978</v>
+        <v>6626477.390986261</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1635,22 +1595,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Martin Westberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85696504</v>
+        <v>85688006</v>
       </c>
       <c r="B10" t="n">
-        <v>100515</v>
+        <v>93158</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1659,38 +1619,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>223246</v>
+        <v>2818</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>270 m O Morgastugan, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>648356.044518752</v>
+        <v>648376.0699466863</v>
       </c>
       <c r="R10" t="n">
-        <v>6626473.383706512</v>
+        <v>6626490.830461418</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1744,25 +1704,30 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Martin Westberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85696505</v>
+        <v>85696510</v>
       </c>
       <c r="B11" t="n">
-        <v>98431</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1775,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1799,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>648349.6254611165</v>
+        <v>648398.1223893921</v>
       </c>
       <c r="R11" t="n">
-        <v>6626469.596396407</v>
+        <v>6626457.402036021</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1853,7 +1818,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1872,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>85687991</v>
+        <v>85696507</v>
       </c>
       <c r="B12" t="n">
-        <v>98431</v>
+        <v>92931</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,34 +1852,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222771</v>
+        <v>2755</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Skuggsprötmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Eurhynchium striatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>270 m O Morgastugan, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>648380.6484142698</v>
+        <v>648378.446627426</v>
       </c>
       <c r="R12" t="n">
-        <v>6626477.390986261</v>
+        <v>6626469.23100985</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1972,19 +1936,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Martin Westberg</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>85688006</v>
+        <v>85696509</v>
       </c>
       <c r="B13" t="n">
         <v>93158</v>
@@ -2020,14 +1984,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>270 m O Morgastugan, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>648376.0699466863</v>
+        <v>648366.9244904976</v>
       </c>
       <c r="R13" t="n">
-        <v>6626490.830461418</v>
+        <v>6626479.366797819</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2081,30 +2045,25 @@
       <c r="AG13" t="b">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
-      </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Martin Westberg</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>85696498</v>
+        <v>84260036</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>88853</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2113,41 +2072,52 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>4189</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>648562.9523080562</v>
+        <v>648574.4775486302</v>
       </c>
       <c r="R14" t="n">
-        <v>6626316.146475042</v>
+        <v>6626432.648480264</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2171,7 +2141,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2181,7 +2151,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2195,28 +2165,49 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>I barrmatta under gran</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies # I barrmatta under gran</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>85696491</v>
+        <v>84261378</v>
       </c>
       <c r="B15" t="n">
-        <v>90005</v>
+        <v>93235</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2229,37 +2220,41 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1339</v>
+        <v>210</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>648616.8037374825</v>
+        <v>648647.4352402453</v>
       </c>
       <c r="R15" t="n">
-        <v>6626321.826701885</v>
+        <v>6626402.765504949</v>
       </c>
       <c r="S15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2283,7 +2278,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2293,7 +2288,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2307,28 +2302,39 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Kraftigt rötad låga</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Kraftigt rötad låga</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>85696510</v>
+        <v>84260154</v>
       </c>
       <c r="B16" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,41 +2343,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>648398.1223893921</v>
+        <v>648503.2107131273</v>
       </c>
       <c r="R16" t="n">
-        <v>6626457.402036021</v>
+        <v>6626432.833224222</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2395,7 +2404,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2405,7 +2414,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2419,28 +2428,44 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>85696507</v>
+        <v>85696492</v>
       </c>
       <c r="B17" t="n">
-        <v>92931</v>
+        <v>93158</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2453,21 +2478,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2755</v>
+        <v>2818</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skuggsprötmossa</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Eurhynchium striatum</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2477,10 +2502,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>648378.446627426</v>
+        <v>648618.9427386825</v>
       </c>
       <c r="R17" t="n">
-        <v>6626469.23100985</v>
+        <v>6626318.884818928</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2549,10 +2574,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85696509</v>
+        <v>85696495</v>
       </c>
       <c r="B18" t="n">
-        <v>93158</v>
+        <v>90005</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2565,21 +2590,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2818</v>
+        <v>1339</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2589,10 +2614,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>648366.9244904976</v>
+        <v>648602.9986791029</v>
       </c>
       <c r="R18" t="n">
-        <v>6626479.366797819</v>
+        <v>6626325.816710906</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2661,50 +2686,50 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85688003</v>
+        <v>85696496</v>
       </c>
       <c r="B19" t="n">
-        <v>56632</v>
+        <v>93158</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103012</v>
+        <v>2818</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phylloscopus sibilatrix</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Bechstein, 1793)</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>270 m O Morgastugan, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>648679.7948023564</v>
+        <v>648579.0191082138</v>
       </c>
       <c r="R19" t="n">
-        <v>6626579.629163019</v>
+        <v>6626318.80554978</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2761,22 +2786,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Martin Westberg</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>92820266</v>
+        <v>85696498</v>
       </c>
       <c r="B20" t="n">
-        <v>93044</v>
+        <v>89392</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2785,41 +2810,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2809</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kungshamn - Morga NR, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>648627.1631714181</v>
+        <v>648562.9523080562</v>
       </c>
       <c r="R20" t="n">
-        <v>6626353.521395561</v>
+        <v>6626316.146475042</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2843,7 +2868,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2853,7 +2878,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2869,31 +2894,26 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>blandskog</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96372410</v>
+        <v>85696491</v>
       </c>
       <c r="B21" t="n">
-        <v>90642</v>
+        <v>90005</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,51 +2922,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>1339</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga, Knivsta, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>648766.9465417236</v>
+        <v>648616.8037374825</v>
       </c>
       <c r="R21" t="n">
-        <v>6626611.866342653</v>
+        <v>6626321.826701885</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2970,22 +2980,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3000,22 +3010,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Annica Beil</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Annica Beil</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103719668</v>
+        <v>92820266</v>
       </c>
       <c r="B22" t="n">
-        <v>90319</v>
+        <v>93044</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3028,37 +3038,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4769</v>
+        <v>2809</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga: Turelund, Upl</t>
+          <t>Kungshamn - Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>648640.5358109227</v>
+        <v>648627.1631714181</v>
       </c>
       <c r="R22" t="n">
-        <v>6626423.680281159</v>
+        <v>6626353.521395561</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3082,7 +3092,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3092,7 +3102,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3108,30 +3118,31 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>blandskog</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Björn Larsson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Birgitta Wasstorp, Cajsa Björkén, Eva Grönlund, Karl Soler Kinnerbäck, Lars Gerre, Martin Axegård, Åke Berg</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>SMF:s mykologivecka</t>
-        </is>
-      </c>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103719621</v>
+        <v>103719668</v>
       </c>
       <c r="B23" t="n">
-        <v>90005</v>
+        <v>90319</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3144,21 +3155,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1339</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3168,13 +3179,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>648521.5163363311</v>
+        <v>648640.5358109227</v>
       </c>
       <c r="R23" t="n">
-        <v>6626430.031530478</v>
+        <v>6626423.680281159</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3244,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103719577</v>
+        <v>103719621</v>
       </c>
       <c r="B24" t="n">
-        <v>88924</v>
+        <v>90005</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3256,25 +3267,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>233192</v>
+        <v>1339</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Solfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramaria flavobrunnescens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(G.F. Atk.) Corner, 1950</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3284,13 +3295,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>648653.5172598924</v>
+        <v>648521.5163363311</v>
       </c>
       <c r="R24" t="n">
-        <v>6626579.589166841</v>
+        <v>6626430.031530478</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3338,20 +3349,9 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>Hassel, gran, tall</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>

--- a/artfynd/A 22387-2020.xlsx
+++ b/artfynd/A 22387-2020.xlsx
@@ -680,53 +680,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85688003</v>
+        <v>84260036</v>
       </c>
       <c r="B2" t="n">
-        <v>56632</v>
+        <v>88853</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103012</v>
+        <v>4189</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phylloscopus sibilatrix</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Bechstein, 1793)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>270 m O Morgastugan, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>648679.7948023564</v>
+        <v>648574.4775486302</v>
       </c>
       <c r="R2" t="n">
-        <v>6626579.629163019</v>
+        <v>6626432.648480264</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +761,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +771,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,28 +785,49 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>I barrmatta under gran</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies # I barrmatta under gran</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Martin Westberg</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103719577</v>
+        <v>84261378</v>
       </c>
       <c r="B3" t="n">
-        <v>88924</v>
+        <v>93235</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +836,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>233192</v>
+        <v>210</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Solfingersvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria flavobrunnescens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(G.F. Atk.) Corner, 1950</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga: Turelund, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>648653.5172598924</v>
+        <v>648647.4352402453</v>
       </c>
       <c r="R3" t="n">
-        <v>6626579.589166841</v>
+        <v>6626402.765504949</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +898,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +908,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -886,43 +922,39 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Hassel, gran, tall</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Kraftigt rötad låga</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Kraftigt rötad låga</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Björn Larsson</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Birgitta Wasstorp, Cajsa Björkén, Eva Grönlund, Karl Soler Kinnerbäck, Lars Gerre, Martin Axegård, Åke Berg</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>SMF:s mykologivecka</t>
-        </is>
-      </c>
+          <t>Björn Bråvander</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96372410</v>
+        <v>84260154</v>
       </c>
       <c r="B4" t="n">
-        <v>90642</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -931,51 +963,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga, Knivsta, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>648766.9465417236</v>
+        <v>648503.2107131273</v>
       </c>
       <c r="R4" t="n">
-        <v>6626611.866342653</v>
+        <v>6626432.833224222</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -999,22 +1024,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,18 +1048,34 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Annica Beil</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Annica Beil</t>
+          <t>Björn Bråvander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1270,10 +1311,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85696504</v>
+        <v>85696492</v>
       </c>
       <c r="B7" t="n">
-        <v>100515</v>
+        <v>93158</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1282,25 +1323,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>223246</v>
+        <v>2818</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ulmus glabra</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Huds.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1310,10 +1351,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>648356.044518752</v>
+        <v>648618.9427386825</v>
       </c>
       <c r="R7" t="n">
-        <v>6626473.383706512</v>
+        <v>6626318.884818928</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1382,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85696505</v>
+        <v>85696495</v>
       </c>
       <c r="B8" t="n">
-        <v>98431</v>
+        <v>90005</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222771</v>
+        <v>1339</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>648349.6254611165</v>
+        <v>648602.9986791029</v>
       </c>
       <c r="R8" t="n">
-        <v>6626469.596396407</v>
+        <v>6626325.816710906</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1476,7 +1517,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1495,10 +1535,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85687991</v>
+        <v>85696496</v>
       </c>
       <c r="B9" t="n">
-        <v>98431</v>
+        <v>93158</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,34 +1551,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222771</v>
+        <v>2818</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>270 m O Morgastugan, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>648380.6484142698</v>
+        <v>648579.0191082138</v>
       </c>
       <c r="R9" t="n">
-        <v>6626477.390986261</v>
+        <v>6626318.80554978</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1595,22 +1635,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Martin Westberg</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85688006</v>
+        <v>85696504</v>
       </c>
       <c r="B10" t="n">
-        <v>93158</v>
+        <v>100515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,38 +1659,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2818</v>
+        <v>223246</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Ulmus glabra</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>Huds.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>270 m O Morgastugan, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>648376.0699466863</v>
+        <v>648356.044518752</v>
       </c>
       <c r="R10" t="n">
-        <v>6626490.830461418</v>
+        <v>6626473.383706512</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1704,30 +1744,25 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Martin Westberg</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85696510</v>
+        <v>85696505</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>98431</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1775,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1799,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>648398.1223893921</v>
+        <v>648349.6254611165</v>
       </c>
       <c r="R11" t="n">
-        <v>6626457.402036021</v>
+        <v>6626469.596396407</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1818,6 +1853,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1836,10 +1872,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>85696507</v>
+        <v>85687991</v>
       </c>
       <c r="B12" t="n">
-        <v>92931</v>
+        <v>98431</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,34 +1888,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2755</v>
+        <v>222771</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skuggsprötmossa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Eurhynchium striatum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>270 m O Morgastugan, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>648378.446627426</v>
+        <v>648380.6484142698</v>
       </c>
       <c r="R12" t="n">
-        <v>6626469.23100985</v>
+        <v>6626477.390986261</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1936,19 +1972,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Martin Westberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>85696509</v>
+        <v>85688006</v>
       </c>
       <c r="B13" t="n">
         <v>93158</v>
@@ -1984,14 +2020,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>270 m O Morgastugan, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>648366.9244904976</v>
+        <v>648376.0699466863</v>
       </c>
       <c r="R13" t="n">
-        <v>6626479.366797819</v>
+        <v>6626490.830461418</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2045,25 +2081,30 @@
       <c r="AG13" t="b">
         <v>0</v>
       </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
+      </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Martin Westberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>84260036</v>
+        <v>85696498</v>
       </c>
       <c r="B14" t="n">
-        <v>88853</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,52 +2113,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4189</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>648574.4775486302</v>
+        <v>648562.9523080562</v>
       </c>
       <c r="R14" t="n">
-        <v>6626432.648480264</v>
+        <v>6626316.146475042</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2141,7 +2171,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2151,7 +2181,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2165,49 +2195,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>I barrmatta under gran</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Picea abies # I barrmatta under gran</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>84261378</v>
+        <v>85696491</v>
       </c>
       <c r="B15" t="n">
-        <v>93235</v>
+        <v>90005</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,41 +2229,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>210</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>648647.4352402453</v>
+        <v>648616.8037374825</v>
       </c>
       <c r="R15" t="n">
-        <v>6626402.765504949</v>
+        <v>6626321.826701885</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2278,7 +2283,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2288,7 +2293,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2302,39 +2307,28 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>Kraftigt rötad låga</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Kraftigt rötad låga</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>84260154</v>
+        <v>85696510</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2343,44 +2337,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>648503.2107131273</v>
+        <v>648398.1223893921</v>
       </c>
       <c r="R16" t="n">
-        <v>6626432.833224222</v>
+        <v>6626457.402036021</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2404,7 +2395,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2414,7 +2405,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2428,44 +2419,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Björn Bråvander</t>
+          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>85696492</v>
+        <v>85696507</v>
       </c>
       <c r="B17" t="n">
-        <v>93158</v>
+        <v>92931</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2478,21 +2453,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2818</v>
+        <v>2755</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Skuggsprötmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Eurhynchium striatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2502,10 +2477,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>648618.9427386825</v>
+        <v>648378.446627426</v>
       </c>
       <c r="R17" t="n">
-        <v>6626318.884818928</v>
+        <v>6626469.23100985</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2574,10 +2549,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85696495</v>
+        <v>85696509</v>
       </c>
       <c r="B18" t="n">
-        <v>90005</v>
+        <v>93158</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2590,21 +2565,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1339</v>
+        <v>2818</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2614,10 +2589,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>648602.9986791029</v>
+        <v>648366.9244904976</v>
       </c>
       <c r="R18" t="n">
-        <v>6626325.816710906</v>
+        <v>6626479.366797819</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2686,50 +2661,50 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85696496</v>
+        <v>85688003</v>
       </c>
       <c r="B19" t="n">
-        <v>93158</v>
+        <v>56632</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2818</v>
+        <v>103012</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Phylloscopus sibilatrix</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Bechstein, 1793)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>270 m O Morgastugan, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>648579.0191082138</v>
+        <v>648679.7948023564</v>
       </c>
       <c r="R19" t="n">
-        <v>6626318.80554978</v>
+        <v>6626579.629163019</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2786,22 +2761,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Martin Westberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Martin Westberg, Jesper Wadstein, Linda Johannesson, Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>85696498</v>
+        <v>92820266</v>
       </c>
       <c r="B20" t="n">
-        <v>89392</v>
+        <v>93044</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2810,41 +2785,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>2809</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>Kungshamn - Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>648562.9523080562</v>
+        <v>648627.1631714181</v>
       </c>
       <c r="R20" t="n">
-        <v>6626316.146475042</v>
+        <v>6626353.521395561</v>
       </c>
       <c r="S20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2868,7 +2843,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2878,7 +2853,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2894,26 +2869,31 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>blandskog</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>85696491</v>
+        <v>96372410</v>
       </c>
       <c r="B21" t="n">
-        <v>90005</v>
+        <v>90642</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2922,41 +2902,51 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1339</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga NR, Upl</t>
+          <t>Kungshamn-Morga, Knivsta, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>648616.8037374825</v>
+        <v>648766.9465417236</v>
       </c>
       <c r="R21" t="n">
-        <v>6626321.826701885</v>
+        <v>6626611.866342653</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2980,22 +2970,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:35</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3010,22 +3000,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Annica Beil</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Jesper Wadstein, Linda Johannesson, Martin Westberg, Ingemar Södergren</t>
+          <t>Annica Beil</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>92820266</v>
+        <v>103719668</v>
       </c>
       <c r="B22" t="n">
-        <v>93044</v>
+        <v>90319</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3038,37 +3028,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2809</v>
+        <v>4769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kungshamn - Morga NR, Upl</t>
+          <t>Kungshamn-Morga: Turelund, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>648627.1631714181</v>
+        <v>648640.5358109227</v>
       </c>
       <c r="R22" t="n">
-        <v>6626353.521395561</v>
+        <v>6626423.680281159</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3092,7 +3082,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3102,7 +3092,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3118,31 +3108,30 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>blandskog</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
+          <t>Björn Larsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Hans Rydberg</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Birgitta Wasstorp, Cajsa Björkén, Eva Grönlund, Karl Soler Kinnerbäck, Lars Gerre, Martin Axegård, Åke Berg</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>SMF:s mykologivecka</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103719668</v>
+        <v>103719621</v>
       </c>
       <c r="B23" t="n">
-        <v>90319</v>
+        <v>90005</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3155,21 +3144,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
+        <v>1339</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3179,13 +3168,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>648640.5358109227</v>
+        <v>648521.5163363311</v>
       </c>
       <c r="R23" t="n">
-        <v>6626423.680281159</v>
+        <v>6626430.031530478</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3255,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103719621</v>
+        <v>103719577</v>
       </c>
       <c r="B24" t="n">
-        <v>90005</v>
+        <v>88924</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,25 +3256,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1339</v>
+        <v>233192</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Solfingersvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria flavobrunnescens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(G.F. Atk.) Corner, 1950</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3295,13 +3284,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>648521.5163363311</v>
+        <v>648653.5172598924</v>
       </c>
       <c r="R24" t="n">
-        <v>6626430.031530478</v>
+        <v>6626579.589166841</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3349,9 +3338,20 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Hassel, gran, tall</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
